--- a/MonitorUIforCA9/MonitorUIforCA9设计资料.xlsx
+++ b/MonitorUIforCA9/MonitorUIforCA9设计资料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -59,20 +59,21 @@
     <t>BB04</t>
   </si>
   <si>
-    <t>BB05</t>
-  </si>
-  <si>
     <t>BB06</t>
   </si>
   <si>
     <t>BB07</t>
+  </si>
+  <si>
+    <t>BLUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,7 +200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,20 +409,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -431,7 +430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -439,7 +438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -447,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -455,25 +454,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -487,12 +486,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -500,12 +499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
